--- a/biology/Botanique/Juncus_subnodulosus/Juncus_subnodulosus.xlsx
+++ b/biology/Botanique/Juncus_subnodulosus/Juncus_subnodulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus subnodulosus, le Jonc noueux, est une espèce végétale de la famille des Juncaceae.
 C'est une plante caractéristique des tourbières basses alcalines et est typiquement une plante génératrice de tourbe quand les conditions du milieu permettent la turfigenèse.
